--- a/positioned-blocks/01.xlsx
+++ b/positioned-blocks/01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
     <t>b0</t>
   </si>
   <si>
-    <t>e1</t>
-  </si>
-  <si>
     <t>g0</t>
   </si>
   <si>
     <t>i1</t>
+  </si>
+  <si>
+    <t>e1</t>
   </si>
   <si>
     <t>c2</t>
@@ -203,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -249,16 +249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -281,6 +289,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,55 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,15 +371,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -387,7 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,18 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,6 +457,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,18 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,7 +564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,43 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,25 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,16 +734,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,7 +752,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,24 +774,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -801,17 +783,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +821,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:BX109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:T46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" customHeight="1"/>
@@ -2514,59 +2514,32 @@
       <c r="J36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="W36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="X36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="Y36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="Z36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="W36" s="10" t="s">
+      <c r="AA36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="AB36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y36" s="10" t="s">
+      <c r="AC36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z36" s="10" t="s">
+      <c r="AD36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD36" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE36" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:31">
@@ -2597,59 +2570,32 @@
       <c r="J37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="W37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="X37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="Y37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="Z37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="W37" s="10" t="s">
+      <c r="AA37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="AB37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y37" s="10" t="s">
+      <c r="AC37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="10" t="s">
+      <c r="AD37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD37" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE37" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:31">
@@ -2680,59 +2626,32 @@
       <c r="J38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="W38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="X38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="Y38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="Z38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="W38" s="10" t="s">
+      <c r="AA38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="AB38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y38" s="10" t="s">
+      <c r="AC38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z38" s="10" t="s">
+      <c r="AD38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD38" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE38" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:31">
@@ -2763,88 +2682,121 @@
       <c r="J39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="22" t="s">
+      <c r="M39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="Z39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="AA39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="13:31">
+      <c r="M40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="Z40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="W39" s="10" t="s">
+      <c r="AA40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X39" s="10" t="s">
+      <c r="AB40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y39" s="10" t="s">
+      <c r="AC40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z39" s="10" t="s">
+      <c r="AD40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE39" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="23:31">
-      <c r="W40" s="10" t="s">
+      <c r="AE40" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE40" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:71">
@@ -2902,32 +2854,38 @@
       <c r="T41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="U41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X41" s="10" t="s">
+      <c r="AB41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y41" s="10" t="s">
+      <c r="AC41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z41" s="10" t="s">
+      <c r="AD41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE41" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ41" s="10" t="s">
         <v>0</v>
@@ -3012,32 +2970,38 @@
       <c r="T42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="U42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X42" s="10" t="s">
+      <c r="AB42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="10" t="s">
+      <c r="AC42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="10" t="s">
+      <c r="AD42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD42" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE42" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ42" s="10" t="s">
         <v>0</v>
@@ -3123,31 +3087,31 @@
         <v>7</v>
       </c>
       <c r="W43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="10" t="s">
+      <c r="AB43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="10" t="s">
+      <c r="AC43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z43" s="10" t="s">
+      <c r="AD43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE43" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ43" s="10" t="s">
         <v>0</v>
@@ -3233,31 +3197,31 @@
         <v>7</v>
       </c>
       <c r="W44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X44" s="10" t="s">
+      <c r="AB44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y44" s="10" t="s">
+      <c r="AC44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z44" s="10" t="s">
+      <c r="AD44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD44" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE44" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ44" s="10" t="s">
         <v>0</v>
@@ -3343,31 +3307,31 @@
         <v>7</v>
       </c>
       <c r="W45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X45" s="10" t="s">
+      <c r="AB45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y45" s="10" t="s">
+      <c r="AC45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z45" s="10" t="s">
+      <c r="AD45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE45" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:71">
@@ -3426,31 +3390,31 @@
         <v>7</v>
       </c>
       <c r="W46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X46" s="10" t="s">
+      <c r="AB46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y46" s="10" t="s">
+      <c r="AC46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z46" s="10" t="s">
+      <c r="AD46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA46" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC46" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD46" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE46" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ46" s="10" t="s">
         <v>5</v>
@@ -3482,31 +3446,31 @@
     </row>
     <row r="47" customHeight="1" spans="23:71">
       <c r="W47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X47" s="10" t="s">
+      <c r="AB47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y47" s="10" t="s">
+      <c r="AC47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z47" s="10" t="s">
+      <c r="AD47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD47" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE47" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ47" s="10" t="s">
         <v>5</v>
@@ -3598,31 +3562,31 @@
         <v>8</v>
       </c>
       <c r="W48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="AB48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y48" s="10" t="s">
+      <c r="AC48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z48" s="10" t="s">
+      <c r="AD48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD48" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE48" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ48" s="10" t="s">
         <v>5</v>
@@ -3714,31 +3678,31 @@
         <v>8</v>
       </c>
       <c r="W49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X49" s="10" t="s">
+      <c r="AB49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y49" s="10" t="s">
+      <c r="AC49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z49" s="10" t="s">
+      <c r="AD49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD49" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE49" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ49" s="10" t="s">
         <v>5</v>
@@ -3830,31 +3794,31 @@
         <v>8</v>
       </c>
       <c r="W50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X50" s="10" t="s">
+      <c r="AB50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y50" s="10" t="s">
+      <c r="AC50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Z50" s="10" t="s">
+      <c r="AD50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD50" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="AE50" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ50" s="10" t="s">
         <v>5</v>
@@ -6764,8 +6728,8 @@
   <sheetPr/>
   <dimension ref="B2:CW93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="CI31" sqref="CI31"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="CP31" sqref="CP31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.708333333333333" defaultRowHeight="5" customHeight="1"/>
@@ -8533,58 +8497,58 @@
         <v>25</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>26</v>
@@ -8641,37 +8605,37 @@
         <v>26</v>
       </c>
       <c r="BA9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN9" s="5" t="s">
         <v>27</v>
@@ -8814,58 +8778,58 @@
         <v>25</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
         <v>26</v>
@@ -8922,37 +8886,37 @@
         <v>26</v>
       </c>
       <c r="BA10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN10" s="5" t="s">
         <v>27</v>
@@ -9095,58 +9059,58 @@
         <v>25</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>26</v>
@@ -9203,37 +9167,37 @@
         <v>26</v>
       </c>
       <c r="BA11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN11" s="5" t="s">
         <v>27</v>
@@ -9376,58 +9340,58 @@
         <v>25</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="8" t="s">
         <v>26</v>
@@ -9484,37 +9448,37 @@
         <v>26</v>
       </c>
       <c r="BA12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN12" s="5" t="s">
         <v>27</v>
@@ -9657,58 +9621,58 @@
         <v>25</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="8" t="s">
         <v>26</v>
@@ -9765,37 +9729,37 @@
         <v>26</v>
       </c>
       <c r="BA13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK13" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN13" s="5" t="s">
         <v>27</v>
@@ -9938,58 +9902,58 @@
         <v>25</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="8" t="s">
         <v>26</v>
@@ -10046,37 +10010,37 @@
         <v>26</v>
       </c>
       <c r="BA14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN14" s="5" t="s">
         <v>27</v>
@@ -10362,7 +10326,6 @@
       <c r="BK16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL16" s="4"/>
       <c r="BM16" s="7" t="s">
         <v>32</v>
       </c>
@@ -10402,7 +10365,6 @@
       <c r="BY16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BZ16" s="4"/>
       <c r="CA16" s="8" t="s">
         <v>33</v>
       </c>
@@ -10654,7 +10616,6 @@
       <c r="BK17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL17" s="4"/>
       <c r="BM17" s="7" t="s">
         <v>32</v>
       </c>
@@ -10694,7 +10655,6 @@
       <c r="BY17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BZ17" s="4"/>
       <c r="CA17" s="8" t="s">
         <v>33</v>
       </c>
@@ -10946,7 +10906,6 @@
       <c r="BK18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL18" s="4"/>
       <c r="BM18" s="7" t="s">
         <v>32</v>
       </c>
@@ -10986,7 +10945,6 @@
       <c r="BY18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BZ18" s="4"/>
       <c r="CA18" s="8" t="s">
         <v>33</v>
       </c>
@@ -11238,7 +11196,6 @@
       <c r="BK19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL19" s="4"/>
       <c r="BM19" s="7" t="s">
         <v>32</v>
       </c>
@@ -11278,7 +11235,6 @@
       <c r="BY19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BZ19" s="4"/>
       <c r="CA19" s="8" t="s">
         <v>33</v>
       </c>
@@ -11530,7 +11486,6 @@
       <c r="BK20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL20" s="4"/>
       <c r="BM20" s="7" t="s">
         <v>32</v>
       </c>
@@ -11570,7 +11525,6 @@
       <c r="BY20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BZ20" s="4"/>
       <c r="CA20" s="8" t="s">
         <v>33</v>
       </c>
@@ -11822,21 +11776,6 @@
       <c r="BK21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
-      <c r="BP21" s="4"/>
-      <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="4"/>
-      <c r="BT21" s="4"/>
-      <c r="BU21" s="4"/>
-      <c r="BV21" s="4"/>
-      <c r="BW21" s="4"/>
-      <c r="BX21" s="4"/>
-      <c r="BY21" s="4"/>
-      <c r="BZ21" s="4"/>
       <c r="CA21" s="8" t="s">
         <v>33</v>
       </c>
@@ -12088,7 +12027,6 @@
       <c r="BK22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL22" s="4"/>
       <c r="BM22" s="5" t="s">
         <v>34</v>
       </c>
@@ -12107,7 +12045,6 @@
       <c r="BR22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS22" s="4"/>
       <c r="BT22" s="6" t="s">
         <v>35</v>
       </c>
@@ -12126,7 +12063,6 @@
       <c r="BY22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ22" s="4"/>
       <c r="CA22" s="8" t="s">
         <v>33</v>
       </c>
@@ -12378,7 +12314,6 @@
       <c r="BK23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL23" s="4"/>
       <c r="BM23" s="5" t="s">
         <v>34</v>
       </c>
@@ -12397,7 +12332,6 @@
       <c r="BR23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS23" s="4"/>
       <c r="BT23" s="6" t="s">
         <v>35</v>
       </c>
@@ -12416,7 +12350,6 @@
       <c r="BY23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ23" s="4"/>
       <c r="CA23" s="8" t="s">
         <v>33</v>
       </c>
@@ -12668,7 +12601,6 @@
       <c r="BK24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL24" s="4"/>
       <c r="BM24" s="5" t="s">
         <v>34</v>
       </c>
@@ -12687,7 +12619,6 @@
       <c r="BR24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS24" s="4"/>
       <c r="BT24" s="6" t="s">
         <v>35</v>
       </c>
@@ -12706,7 +12637,6 @@
       <c r="BY24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ24" s="4"/>
       <c r="CA24" s="8" t="s">
         <v>33</v>
       </c>
@@ -12958,7 +12888,6 @@
       <c r="BK25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL25" s="4"/>
       <c r="BM25" s="5" t="s">
         <v>34</v>
       </c>
@@ -12977,7 +12906,6 @@
       <c r="BR25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS25" s="4"/>
       <c r="BT25" s="6" t="s">
         <v>35</v>
       </c>
@@ -12996,7 +12924,6 @@
       <c r="BY25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ25" s="4"/>
       <c r="CA25" s="8" t="s">
         <v>33</v>
       </c>
@@ -13248,7 +13175,6 @@
       <c r="BK26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL26" s="4"/>
       <c r="BM26" s="5" t="s">
         <v>34</v>
       </c>
@@ -13267,7 +13193,6 @@
       <c r="BR26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS26" s="4"/>
       <c r="BT26" s="6" t="s">
         <v>35</v>
       </c>
@@ -13286,7 +13211,6 @@
       <c r="BY26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ26" s="4"/>
       <c r="CA26" s="8" t="s">
         <v>33</v>
       </c>
@@ -13538,7 +13462,6 @@
       <c r="BK27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL27" s="4"/>
       <c r="BM27" s="5" t="s">
         <v>34</v>
       </c>
@@ -13557,7 +13480,6 @@
       <c r="BR27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS27" s="4"/>
       <c r="BT27" s="6" t="s">
         <v>35</v>
       </c>
@@ -13576,7 +13498,6 @@
       <c r="BY27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ27" s="4"/>
       <c r="CA27" s="8" t="s">
         <v>33</v>
       </c>
@@ -13828,7 +13749,6 @@
       <c r="BK28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL28" s="4"/>
       <c r="BM28" s="5" t="s">
         <v>34</v>
       </c>
@@ -13847,7 +13767,6 @@
       <c r="BR28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS28" s="4"/>
       <c r="BT28" s="6" t="s">
         <v>35</v>
       </c>
@@ -13866,7 +13785,6 @@
       <c r="BY28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ28" s="4"/>
       <c r="CA28" s="8" t="s">
         <v>33</v>
       </c>
@@ -14118,7 +14036,6 @@
       <c r="BK29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL29" s="4"/>
       <c r="BM29" s="5" t="s">
         <v>34</v>
       </c>
@@ -14137,7 +14054,6 @@
       <c r="BR29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS29" s="4"/>
       <c r="BT29" s="6" t="s">
         <v>35</v>
       </c>
@@ -14156,7 +14072,6 @@
       <c r="BY29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ29" s="4"/>
       <c r="CA29" s="8" t="s">
         <v>33</v>
       </c>
@@ -14408,7 +14323,6 @@
       <c r="BK30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL30" s="4"/>
       <c r="BM30" s="5" t="s">
         <v>34</v>
       </c>
@@ -14427,7 +14341,6 @@
       <c r="BR30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS30" s="4"/>
       <c r="BT30" s="6" t="s">
         <v>35</v>
       </c>
@@ -14446,7 +14359,6 @@
       <c r="BY30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ30" s="4"/>
       <c r="CA30" s="8" t="s">
         <v>33</v>
       </c>
@@ -14698,7 +14610,6 @@
       <c r="BK31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL31" s="4"/>
       <c r="BM31" s="5" t="s">
         <v>34</v>
       </c>
@@ -14717,7 +14628,6 @@
       <c r="BR31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS31" s="4"/>
       <c r="BT31" s="6" t="s">
         <v>35</v>
       </c>
@@ -14736,7 +14646,6 @@
       <c r="BY31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ31" s="4"/>
       <c r="CA31" s="8" t="s">
         <v>33</v>
       </c>
@@ -14988,7 +14897,6 @@
       <c r="BK32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BL32" s="4"/>
       <c r="BM32" s="5" t="s">
         <v>34</v>
       </c>
@@ -15007,7 +14915,6 @@
       <c r="BR32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BS32" s="4"/>
       <c r="BT32" s="6" t="s">
         <v>35</v>
       </c>
@@ -15026,7 +14933,6 @@
       <c r="BY32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ32" s="4"/>
       <c r="CA32" s="8" t="s">
         <v>33</v>
       </c>
@@ -15275,7 +15181,6 @@
       <c r="BY33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ33" s="4"/>
       <c r="CA33" s="8" t="s">
         <v>33</v>
       </c>
@@ -15548,7 +15453,6 @@
       <c r="BR34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BS34" s="4"/>
       <c r="BT34" s="6" t="s">
         <v>35</v>
       </c>
@@ -15567,7 +15471,6 @@
       <c r="BY34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ34" s="4"/>
       <c r="CA34" s="8" t="s">
         <v>33</v>
       </c>
@@ -15840,7 +15743,6 @@
       <c r="BR35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BS35" s="4"/>
       <c r="BT35" s="6" t="s">
         <v>35</v>
       </c>
@@ -15859,7 +15761,6 @@
       <c r="BY35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ35" s="4"/>
       <c r="CA35" s="8" t="s">
         <v>33</v>
       </c>
@@ -16132,7 +16033,6 @@
       <c r="BR36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BS36" s="4"/>
       <c r="BT36" s="6" t="s">
         <v>35</v>
       </c>
@@ -16151,7 +16051,6 @@
       <c r="BY36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ36" s="4"/>
       <c r="CA36" s="8" t="s">
         <v>33</v>
       </c>
@@ -16424,7 +16323,6 @@
       <c r="BR37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BS37" s="4"/>
       <c r="BT37" s="6" t="s">
         <v>35</v>
       </c>
@@ -16443,7 +16341,6 @@
       <c r="BY37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ37" s="4"/>
       <c r="CA37" s="8" t="s">
         <v>33</v>
       </c>
@@ -16716,7 +16613,6 @@
       <c r="BR38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BS38" s="4"/>
       <c r="BT38" s="6" t="s">
         <v>35</v>
       </c>
@@ -16735,7 +16631,6 @@
       <c r="BY38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ38" s="4"/>
       <c r="CA38" s="8" t="s">
         <v>33</v>
       </c>
